--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/营业利润.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/营业利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>45.92113</v>
-      </c>
-      <c r="C2" t="n">
-        <v>155.27418</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.52947</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.12255</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.15075</v>
-      </c>
-      <c r="G2" t="n">
-        <v>138.28467</v>
-      </c>
-      <c r="H2" t="n">
-        <v>61.51183</v>
-      </c>
-      <c r="I2" t="n">
-        <v>124.35791</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40.52568</v>
-      </c>
-      <c r="K2" t="n">
-        <v>63.71433</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.60148</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.13658</v>
-      </c>
-      <c r="N2" t="n">
-        <v>78.53679</v>
-      </c>
-      <c r="O2" t="n">
-        <v>67.15528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25.6606</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>76.88177</v>
-      </c>
-      <c r="R2" t="n">
-        <v>13.14783</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.61163</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.29005</v>
-      </c>
-      <c r="U2" t="n">
-        <v>101.27966</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-23.08765</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-22.36848</v>
-      </c>
-      <c r="X2" t="n">
-        <v>463.49065</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>418.00254</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>164.75752</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34.24185</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-18.89481</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1199.07514</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>110.05403</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2.7798</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3929.083</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>49.4073</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>67.76128</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>66.94370000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.9942</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51.10248</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>55.75424</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>87.46074</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>130.41033</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>5.65694</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>62.35945</v>
-      </c>
-      <c r="C3" t="n">
-        <v>224.89028</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.66407</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.13399</v>
-      </c>
-      <c r="F3" t="n">
-        <v>37.961</v>
-      </c>
-      <c r="G3" t="n">
-        <v>103.6754</v>
-      </c>
-      <c r="H3" t="n">
-        <v>17.6497</v>
-      </c>
-      <c r="I3" t="n">
-        <v>148.29681</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48.47218</v>
-      </c>
-      <c r="K3" t="n">
-        <v>84.27485</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16.00566</v>
-      </c>
-      <c r="M3" t="n">
-        <v>23.46614</v>
-      </c>
-      <c r="N3" t="n">
-        <v>103.98344</v>
-      </c>
-      <c r="O3" t="n">
-        <v>51.7215</v>
-      </c>
-      <c r="P3" t="n">
-        <v>23.86877</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>95.71487</v>
-      </c>
-      <c r="R3" t="n">
-        <v>14.63462</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.67458</v>
-      </c>
-      <c r="T3" t="n">
-        <v>21.50884</v>
-      </c>
-      <c r="U3" t="n">
-        <v>162.36277</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-18.71385</v>
-      </c>
-      <c r="W3" t="n">
-        <v>21.32658</v>
-      </c>
-      <c r="X3" t="n">
-        <v>486.82865</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>386.07605</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>213.40866</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41.76027</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-37.87416</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>999.63625</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>97.54649999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.53882</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4141.78602</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>55.60744</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>89.19082</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>96.02351</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.696300000000001</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>59.92076</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81.20901000000001</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>93.33193</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>193.50688</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.53757</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>112.96172</v>
-      </c>
-      <c r="C4" t="n">
-        <v>414.34624</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.65043</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05214</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42.06925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>246.91138</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26.25401</v>
-      </c>
-      <c r="I4" t="n">
-        <v>184.39556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54.39718</v>
-      </c>
-      <c r="K4" t="n">
-        <v>103.48955</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.12664</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28.25065</v>
-      </c>
-      <c r="N4" t="n">
-        <v>184.41082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>70.89918</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29.42971</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>104.42805</v>
-      </c>
-      <c r="R4" t="n">
-        <v>16.85879</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.23571</v>
-      </c>
-      <c r="T4" t="n">
-        <v>39.2316</v>
-      </c>
-      <c r="U4" t="n">
-        <v>202.48382</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-16.31955</v>
-      </c>
-      <c r="W4" t="n">
-        <v>70.37591</v>
-      </c>
-      <c r="X4" t="n">
-        <v>514.12695</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>450.87971</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>260.79956</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>56.22793</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>61.27484</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>944.34559</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>149.26775</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>-7.28591</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5404.09439</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>94.19027</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>122.27249</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>123.94536</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15.62433</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>92.05683999999999</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>118.67435</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>113.86763</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>314.95587</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.071429999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
